--- a/Docs/Power_budget_first.xlsx
+++ b/Docs/Power_budget_first.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofstthomasmn-my.sharepoint.com/personal/frie9722_stthomas_edu/Documents/Final_Project_ENGR331/dawg-security-system/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4132FFA0-6B7C-478F-9517-BE36C93F61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65AA5FA-85EB-4785-949C-E83E6DCC1C9D}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4132FFA0-6B7C-478F-9517-BE36C93F61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767A0F44-6A97-471A-84C0-B7277971CC02}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Power Budget</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>*Note - All Currents are listed in mA and times are listed in hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatt </t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -933,22 +936,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -968,12 +962,63 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,15 +1040,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,48 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1349,80 +1343,80 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="81" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="57" t="s">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="58" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58" t="s">
+      <c r="G2" s="72"/>
+      <c r="H2" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="72"/>
+      <c r="J2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="75"/>
+      <c r="L2" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="58"/>
-      <c r="N2" s="80" t="s">
+      <c r="M2" s="72"/>
+      <c r="N2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="73" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="75"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="56"/>
       <c r="V2" s="26"/>
     </row>
-    <row r="3" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
@@ -1474,13 +1468,13 @@
       <c r="Q3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="78"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="58"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="59"/>
       <c r="V3" s="7"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1493,7 @@
       <c r="F4" s="28">
         <v>0</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="41">
         <v>8</v>
       </c>
       <c r="H4" s="28">
@@ -1536,34 +1530,34 @@
         <f>(C4*N4)+(E4*O4)</f>
         <v>10.8</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="83"/>
-      <c r="T4" s="83"/>
-      <c r="U4" s="84"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="70"/>
       <c r="V4" s="25"/>
     </row>
-    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="5">
         <v>0.3</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="2">
         <v>0.5</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="2">
         <v>0.3</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="13">
         <v>0.5</v>
       </c>
       <c r="F5" s="30">
         <v>0</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="42">
         <v>8</v>
       </c>
       <c r="H5" s="30">
@@ -1600,15 +1594,15 @@
         <f t="shared" ref="Q5:Q17" si="3">(C5*N5)+(E5*O5)</f>
         <v>12</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="67"/>
       <c r="V5" s="25"/>
     </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
         <v>24</v>
       </c>
@@ -1627,7 +1621,7 @@
       <c r="F6" s="33">
         <v>8</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="43">
         <v>0</v>
       </c>
       <c r="H6" s="30">
@@ -1664,15 +1658,15 @@
         <f t="shared" si="3"/>
         <v>345</v>
       </c>
-      <c r="R6" s="64" t="s">
+      <c r="R6" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="67"/>
       <c r="V6" s="25"/>
     </row>
-    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>16</v>
       </c>
@@ -1691,7 +1685,7 @@
       <c r="F7" s="33">
         <v>0</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="42">
         <v>8</v>
       </c>
       <c r="H7" s="30">
@@ -1728,15 +1722,15 @@
         <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="R7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="67"/>
       <c r="V7" s="25"/>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +1749,7 @@
       <c r="F8" s="30">
         <v>0</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="42">
         <v>8</v>
       </c>
       <c r="H8" s="30">
@@ -1792,18 +1786,18 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="R8" s="64" t="s">
+      <c r="R8" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="67"/>
       <c r="V8" s="25"/>
-      <c r="W8" s="53" t="s">
+      <c r="W8" s="50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>21</v>
       </c>
@@ -1822,7 +1816,7 @@
       <c r="F9" s="30">
         <v>0</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="43">
         <v>8</v>
       </c>
       <c r="H9" s="30">
@@ -1859,19 +1853,19 @@
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="67"/>
       <c r="V9" s="25"/>
-      <c r="W9" s="54">
+      <c r="W9" s="51">
         <f>P24*365</f>
         <v>0.39154046400000003</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1884,7 @@
       <c r="F10" s="30">
         <v>8</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="43">
         <v>0</v>
       </c>
       <c r="H10" s="30">
@@ -1927,14 +1921,14 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="R10" s="64" t="s">
+      <c r="R10" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="66"/>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="67"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>25</v>
       </c>
@@ -1953,7 +1947,7 @@
       <c r="F11" s="30">
         <v>8</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="43">
         <v>0</v>
       </c>
       <c r="H11" s="30">
@@ -1990,14 +1984,14 @@
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="R11" s="64" t="s">
+      <c r="R11" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="66"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S11" s="66"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="67"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>28</v>
       </c>
@@ -2016,7 +2010,7 @@
       <c r="F12" s="30">
         <v>8</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="43">
         <v>0</v>
       </c>
       <c r="H12" s="30">
@@ -2053,14 +2047,14 @@
         <f t="shared" si="3"/>
         <v>20.16</v>
       </c>
-      <c r="R12" s="64" t="s">
+      <c r="R12" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66"/>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="67"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2"/>
@@ -2090,12 +2084,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="66"/>
-    </row>
-    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="65"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="67"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2"/>
@@ -2125,13 +2119,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="66"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="67"/>
       <c r="V14" s="25"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="24"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2"/>
@@ -2161,13 +2155,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R15" s="64"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="66"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="67"/>
       <c r="V15" s="25"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2"/>
@@ -2197,13 +2191,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R16" s="64"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="66"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="66"/>
+      <c r="T16" s="66"/>
+      <c r="U16" s="67"/>
       <c r="V16" s="25"/>
     </row>
-    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="8"/>
       <c r="C17" s="4"/>
@@ -2233,40 +2227,40 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="64"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="66"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="66"/>
+      <c r="T17" s="66"/>
+      <c r="U17" s="67"/>
       <c r="V17" s="25"/>
       <c r="W17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="62" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="67" t="s">
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="71">
+      <c r="O18" s="79"/>
+      <c r="P18" s="52">
         <f>SUM(P4:P17)</f>
         <v>1262.0160000000001</v>
       </c>
-      <c r="Q18" s="71">
+      <c r="Q18" s="52">
         <f>SUM(Q4:Q17)</f>
         <v>1627.16</v>
       </c>
@@ -2274,28 +2268,28 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N19" s="69"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N20" s="55" t="s">
+    <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N19" s="80"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="O20" s="56"/>
-      <c r="P20" s="55" t="s">
+      <c r="O20" s="61"/>
+      <c r="P20" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="79"/>
+      <c r="Q20" s="62"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N21" s="55" t="s">
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N21" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="56"/>
+      <c r="O21" s="61"/>
       <c r="P21" s="27">
         <f>SUM((P18/1000)*5)</f>
         <v>6.3100800000000001</v>
@@ -2306,21 +2300,21 @@
       </c>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N22" s="55" t="s">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N22" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="O22" s="56"/>
-      <c r="P22" s="49">
+      <c r="O22" s="61"/>
+      <c r="P22" s="46">
         <f>SUM(P21/1000)</f>
         <v>6.31008E-3</v>
       </c>
-      <c r="Q22" s="50">
+      <c r="Q22" s="47">
         <f>SUM(Q21/1000)</f>
         <v>8.1358000000000021E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="37" t="s">
         <v>40</v>
       </c>
@@ -2334,18 +2328,21 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="N23" s="55" t="s">
+      <c r="N23" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="51">
+      <c r="O23" s="61"/>
+      <c r="P23" s="48">
         <v>0.17</v>
       </c>
-      <c r="Q23" s="52">
+      <c r="Q23" s="49">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="s">
         <v>41</v>
       </c>
@@ -2359,20 +2356,20 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
-      <c r="N24" s="55" t="s">
+      <c r="N24" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="56"/>
-      <c r="P24" s="49">
+      <c r="O24" s="61"/>
+      <c r="P24" s="46">
         <f>P22*P23</f>
         <v>1.0727136000000001E-3</v>
       </c>
-      <c r="Q24" s="50">
+      <c r="Q24" s="47">
         <f>Q22*Q23</f>
         <v>1.3830860000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
@@ -2384,31 +2381,49 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="N25" s="55" t="s">
+      <c r="N25" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="56"/>
-      <c r="P25" s="48">
+      <c r="O25" s="61"/>
+      <c r="P25" s="45">
         <f>N32/P18</f>
         <v>1.9017191541153202</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="44">
         <f>N32/Q18</f>
         <v>1.4749625113695026</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N32">
         <v>2400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="R2:U3"/>
     <mergeCell ref="N20:O20"/>
@@ -2425,24 +2440,6 @@
     <mergeCell ref="R14:U14"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="R16:U16"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="73" orientation="landscape" r:id="rId1"/>

--- a/Docs/Power_budget_first.xlsx
+++ b/Docs/Power_budget_first.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofstthomasmn-my.sharepoint.com/personal/frie9722_stthomas_edu/Documents/Final_Project_ENGR331/dawg-security-system/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4132FFA0-6B7C-478F-9517-BE36C93F61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767A0F44-6A97-471A-84C0-B7277971CC02}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4132FFA0-6B7C-478F-9517-BE36C93F61B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D42DA8-9C71-41AE-8C49-24F4DA87EA09}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t xml:space="preserve">Armed </t>
   </si>
   <si>
-    <t xml:space="preserve">Four States of system for a estimated 24hr Cycle </t>
-  </si>
-  <si>
     <t>Current Values reflect 5V Source wall source</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
     <t xml:space="preserve">NIMH batery </t>
   </si>
   <si>
-    <t>Time Run on a 9v In Days</t>
-  </si>
-  <si>
     <t>NIMH Batter</t>
   </si>
   <si>
@@ -207,6 +201,12 @@
   </si>
   <si>
     <t xml:space="preserve">whatt </t>
+  </si>
+  <si>
+    <t>Total Run Time on a 9v Battery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four States of system for a measured and estimated 24hr Cycle </t>
   </si>
 </sst>
 </file>
@@ -962,36 +962,78 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1001,15 +1043,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1018,39 +1051,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1069,10 +1069,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1343,8 +1339,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="81" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1365,55 +1361,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F1" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="F1" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="72" t="s">
+      <c r="A2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="55"/>
+      <c r="J2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="58"/>
+      <c r="L2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="63" t="s">
+      <c r="M2" s="55"/>
+      <c r="N2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64" t="s">
+      <c r="O2" s="78"/>
+      <c r="P2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="54" t="s">
+      <c r="Q2" s="78"/>
+      <c r="R2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="56"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="72"/>
       <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1468,10 +1464,10 @@
       <c r="Q3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="59"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1479,7 +1475,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="38">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="C4" s="39">
         <v>0.45</v>
@@ -1524,18 +1520,18 @@
       </c>
       <c r="P4" s="15">
         <f>(B4*N4)+(D4*O4)</f>
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="Q4" s="12">
         <f>(C4*N4)+(E4*O4)</f>
         <v>10.8</v>
       </c>
-      <c r="R4" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="70"/>
+      <c r="R4" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="81"/>
       <c r="V4" s="25"/>
     </row>
     <row r="5" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1659,7 +1655,7 @@
         <v>345</v>
       </c>
       <c r="R6" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S6" s="66"/>
       <c r="T6" s="66"/>
@@ -1794,7 +1790,7 @@
       <c r="U8" s="67"/>
       <c r="V8" s="25"/>
       <c r="W8" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1854,7 +1850,7 @@
         <v>600</v>
       </c>
       <c r="R9" s="65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S9" s="66"/>
       <c r="T9" s="66"/>
@@ -1862,7 +1858,7 @@
       <c r="V9" s="25"/>
       <c r="W9" s="51">
         <f>P24*365</f>
-        <v>0.39154046400000003</v>
+        <v>0.32185831400000003</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1894,10 +1890,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" s="30">
         <v>0</v>
@@ -1907,19 +1903,19 @@
       </c>
       <c r="N10" s="18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O10" s="19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P10" s="16">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="11">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="R10" s="65" t="s">
         <v>20</v>
@@ -1985,7 +1981,7 @@
         <v>320</v>
       </c>
       <c r="R11" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S11" s="66"/>
       <c r="T11" s="66"/>
@@ -2048,7 +2044,7 @@
         <v>20.16</v>
       </c>
       <c r="R12" s="65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S12" s="66"/>
       <c r="T12" s="66"/>
@@ -2233,90 +2229,90 @@
       <c r="U17" s="67"/>
       <c r="V17" s="25"/>
       <c r="W17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" s="79"/>
-      <c r="P18" s="52">
+      <c r="A18" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18" s="68">
         <f>SUM(P4:P17)</f>
-        <v>1262.0160000000001</v>
-      </c>
-      <c r="Q18" s="52">
+        <v>1037.4159999999999</v>
+      </c>
+      <c r="Q18" s="68">
         <f>SUM(Q4:Q17)</f>
-        <v>1627.16</v>
+        <v>1402.16</v>
       </c>
       <c r="V18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
     </row>
     <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N20" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="O20" s="61"/>
-      <c r="P20" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="62"/>
+      <c r="N20" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="O20" s="53"/>
+      <c r="P20" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="76"/>
       <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N21" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="O21" s="61"/>
+      <c r="N21" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="O21" s="53"/>
       <c r="P21" s="27">
         <f>SUM((P18/1000)*5)</f>
-        <v>6.3100800000000001</v>
+        <v>5.1870799999999999</v>
       </c>
       <c r="Q21" s="27">
         <f>SUM((Q18/1000)*5)</f>
-        <v>8.1358000000000015</v>
+        <v>7.0108000000000006</v>
       </c>
       <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N22" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="61"/>
+      <c r="N22" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="53"/>
       <c r="P22" s="46">
         <f>SUM(P21/1000)</f>
-        <v>6.31008E-3</v>
+        <v>5.1870800000000002E-3</v>
       </c>
       <c r="Q22" s="47">
         <f>SUM(Q21/1000)</f>
-        <v>8.1358000000000021E-3</v>
+        <v>7.0108000000000002E-3</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -2328,10 +2324,10 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
-      <c r="N23" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="61"/>
+      <c r="N23" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="53"/>
       <c r="P23" s="48">
         <v>0.17</v>
       </c>
@@ -2339,12 +2335,12 @@
         <v>0.17</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
@@ -2356,17 +2352,17 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
-      <c r="N24" s="60" t="s">
-        <v>37</v>
-      </c>
-      <c r="O24" s="61"/>
+      <c r="N24" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="53"/>
       <c r="P24" s="46">
         <f>P22*P23</f>
-        <v>1.0727136000000001E-3</v>
+        <v>8.8180360000000011E-4</v>
       </c>
       <c r="Q24" s="47">
         <f>Q22*Q23</f>
-        <v>1.3830860000000004E-3</v>
+        <v>1.1918360000000002E-3</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2381,22 +2377,22 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
-      <c r="N25" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="O25" s="61"/>
+      <c r="N25" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="53"/>
       <c r="P25" s="45">
         <f>N32/P18</f>
-        <v>1.9017191541153202</v>
+        <v>2.3134403170955529</v>
       </c>
       <c r="Q25" s="44">
         <f>N32/Q18</f>
-        <v>1.4749625113695026</v>
+        <v>1.711644890740001</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="N31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
@@ -2406,24 +2402,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="N18:O19"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="R7:U7"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="R11:U11"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="R2:U3"/>
     <mergeCell ref="N20:O20"/>
@@ -2440,6 +2418,24 @@
     <mergeCell ref="R14:U14"/>
     <mergeCell ref="R15:U15"/>
     <mergeCell ref="R16:U16"/>
+    <mergeCell ref="R7:U7"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N21:O21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="73" orientation="landscape" r:id="rId1"/>
